--- a/pred_ohlcv/54_21/2020-01-15 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BTC ohlcv.xlsx
@@ -5384,7 +5384,7 @@
         <v>37.60283164000001</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>37.60283164000001</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>39.40913164000001</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>39.40913164000001</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>39.40773164000002</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>40.18094308000001</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>37.63114308000002</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>37.62014308000001</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>37.80494308000002</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>37.97664308000002</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>37.96364308000002</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>38.99887974000002</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>38.98087974000002</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>39.04897974000002</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>39.04897974000002</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>39.04897974000002</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>39.04897974000002</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>39.04547974000002</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>38.74537974000002</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>38.74537974000002</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>38.89727974000002</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>38.23977974000002</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>38.29797974000002</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>38.28697974000001</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>38.28697974000001</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>39.55513062000001</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>39.55513062000001</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>39.34590410000001</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>40.27963069000001</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>40.57493069000001</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>40.54363069000001</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>40.56825711</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>40.56825711</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>40.47555711</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>40.47555711</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>40.48195711</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>40.21945711</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>40.21945711</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>40.22525711</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>39.88945711</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>39.89285711</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>40.02395711</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>40.00895711</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>40.00895711</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>40.07605711</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>40.07605711</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>40.67325284</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40.62145284</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>40.64055284000001</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>40.64055284000001</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>40.80685284</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>39.54655284</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>39.55555284</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>39.41755284000001</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>39.41755284000001</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>38.04495284000001</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>39.09255284000001</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>39.01975284000001</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>39.01975284000001</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>39.01975284000001</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>38.61875284000001</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>38.64945284000001</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>38.64945284000001</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>38.42475284000001</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>46.96205284000001</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>47.51005284000001</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>47.49835284000002</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>48.59671907000002</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>48.40401907000002</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>52.63240579000002</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>52.62740579000002</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>52.93970579000002</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>52.64060579000002</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>52.64060579000002</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>52.64340579000002</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>52.24510579000002</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>59.04515600000002</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>59.04515600000002</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>47.94135600000002</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>49.39180495000003</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>49.39180495000003</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>49.31700495000003</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>49.23130495000002</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>49.94570495000002</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>49.94570495000002</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>49.40510495000002</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>50.31700495000003</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>50.32480495000003</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>52.02540495000003</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>52.22830495000003</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>51.05110495000003</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>50.89560495000003</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>50.89560495000003</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>51.59620495000003</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>51.57650495000003</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>52.11440495000003</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>52.13000495000003</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>52.13000495000003</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>52.13000495000003</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>52.62770495000003</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>52.62770495000003</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>52.62770495000003</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>52.62770495000003</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>49.83270495000003</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>49.61050495000003</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>52.05780495000003</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>54.19810495000003</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>54.19810495000003</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>54.19810495000003</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>53.99340495000003</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>57.56660495000003</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>57.56660495000003</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>56.27970495000002</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>59.94960495000002</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>58.34070495000002</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>58.86550495000002</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>60.94140495000002</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>60.83790495000002</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>60.83790495000002</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>60.83790495000002</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>59.82710495000002</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>58.54860495000002</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>60.68820495000002</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>60.70450495000002</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>60.70450495000002</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>60.70450495000002</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>58.52396233000002</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>58.52396233000002</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>58.54366233000002</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>58.42456233000002</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>58.61146233000002</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>58.61146233000002</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>58.73017642000002</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>58.95127642000002</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>55.84847642000002</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>55.81917642000002</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>55.88517642000002</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>55.36497642000002</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>55.23327642000002</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>55.41737642000002</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>55.41737642000002</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>55.41737642000002</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>55.41737642000002</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>55.41737642000002</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>55.38027642000002</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>55.38027642000002</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>55.20937642000001</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>55.29087642000001</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>52.79677642000001</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>52.67247642000001</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>53.45007642000001</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>52.41233336000001</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>51.46083336000001</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>50.62843336000001</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>50.62843336000001</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>50.64473336000001</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>50.64473336000001</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>50.64473336000001</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>50.64473336000001</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>50.64473336000001</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>50.54883336000001</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>49.25433336000001</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>49.20553336000001</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>49.23010489000001</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>49.17870489000001</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>50.32980489000001</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>50.32980489000001</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>50.27740489000001</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>50.30240489000001</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>50.30240489000001</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>50.30240489000001</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>50.78200489000001</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>51.45646250000001</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>51.45646250000001</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>51.45646250000001</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>51.45646250000001</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>51.44736250000001</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>51.63056250000001</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>51.56553353000001</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>52.18243353000001</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>52.18243353000001</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>52.79176677000001</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>53.85836677000001</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>54.21346677000001</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>54.21346677000001</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>54.01916677000001</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>54.61066677000002</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>53.30636677000002</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>53.30636677000002</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>49.89706677000002</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>49.47490001000001</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>49.95858273000001</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>49.68378271000001</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>49.68378271000001</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>50.05978271000001</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>50.05838271000001</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>50.05838271000001</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>50.05838271000001</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>50.18508271000001</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>50.18508271000001</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>50.18508271000001</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>50.18508271000001</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>50.16888271000001</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>50.08588271000001</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>50.09008271000001</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>49.42088271000001</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>49.42088271000001</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>49.07508271000002</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>49.87078271000001</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>49.87078271000001</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>48.93415708000001</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>49.66865708000001</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>49.62365708000001</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>49.63425708</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>49.63425708</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>49.63425708</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>48.34654406000001</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>48.00034406</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>48.77924414</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>46.74394414</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>46.74394414</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>46.79664414000001</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>46.79664414000001</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>47.12494414</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>39.17304414</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>37.55624414</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>39.63254414000001</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>40.01914414000001</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>40.01914414000001</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>41.06034414000001</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>41.06034414000001</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>41.06034414000001</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>40.13624414000001</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>37.95124414000001</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>38.16699901</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>38.16699901</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>38.16699901</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>38.16699901</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>37.27959901000001</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>37.20569901</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>36.39679901</v>
       </c>
       <c r="H439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>36.61009901</v>
       </c>
       <c r="H440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>36.61009901</v>
       </c>
       <c r="H441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>36.61009901</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>36.46829901</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>36.62899900999999</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>36.14259900999999</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>36.21819900999999</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>36.21819900999999</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>36.18309900999999</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>36.32310162</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>36.38192426</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>33.54022426</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>36.86862426</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>36.68272426</v>
       </c>
       <c r="H453">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>35.79249822</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>36.88709822</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>39.47427218</v>
       </c>
       <c r="H456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>39.63117218</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>36.36927218</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>36.61727218</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>28.39097218</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>28.39097218</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>30.02347218</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>30.02197218</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>29.44347218</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>29.54157218</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>28.85467218</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>29.08397218</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>29.08397218</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>29.92357218</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>27.98397218</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>29.41127218</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>29.41127218</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>29.23437218</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>31.81657218</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>27.57187218</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>27.06417218</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>29.62037218</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>29.98797218</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>29.98797218</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>29.98797218</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>35.89557218</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>36.81255002</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>56.55075002</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>373.5969476500001</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>354.7353689800001</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>374.7147287900001</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>379.5270963100001</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>395.0799963100001</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>386.7878963100001</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>376.7844399600001</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>363.6408260600001</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>388.9963158100001</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>407.1814679200001</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>434.2548637000001</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>471.8447158100001</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>448.9187682500001</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>465.4572676500001</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>450.2217946600001</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>436.9485285700001</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>422.1093285700001</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>401.1997286200001</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>418.2392474200001</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>425.0204474200001</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>411.2712068600001</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>389.7526363500001</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>389.7526363500001</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>384.6604716600001</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>365.5819716600001</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>371.3170716600001</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>392.9457578400001</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>412.2817188400001</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>571.9618837400002</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>534.8215609500002</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>520.1846411200002</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>484.8563112200002</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>470.6558944200002</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>442.8181944200002</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>424.2287779900005</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>454.8016779900005</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>464.9986779900005</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>449.4433727200005</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>434.7997869400004</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>460.6951869400004</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>513.7182869400004</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>695.8134157600005</v>
       </c>
       <c r="H1312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>715.0103346500005</v>
       </c>
       <c r="H1313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>705.5012029200004</v>
       </c>
       <c r="H1314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>713.5846196600004</v>
       </c>
       <c r="H1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>685.7712836400004</v>
       </c>
       <c r="H1316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>688.9083836400005</v>
       </c>
       <c r="H1317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>707.4261836400004</v>
       </c>
       <c r="H1318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>725.1294441700004</v>
       </c>
       <c r="H1319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>700.4816524700004</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>729.9644020100004</v>
       </c>
       <c r="H1321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>704.6036790200004</v>
       </c>
       <c r="H1322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>678.9319040200004</v>
       </c>
       <c r="H1323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BTC ohlcv.xlsx
@@ -5384,7 +5384,7 @@
         <v>37.60283164000001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>37.60283164000001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>39.40913164000001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>39.40913164000001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>39.40773164000002</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>40.18094308000001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>37.63114308000002</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>37.62014308000001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>37.80494308000002</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>37.97664308000002</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>37.96364308000002</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>38.89727974000002</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>38.23977974000002</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>38.29797974000002</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>38.28697974000001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>38.28697974000001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>39.55513062000001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>39.55513062000001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>39.34590410000001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>40.27963069000001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>40.57493069000001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>40.54363069000001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>40.56825711</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>40.56825711</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>40.47555711</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>40.47555711</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>40.48195711</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>40.21945711</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>40.21945711</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>40.22525711</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>39.88945711</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>39.89285711</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>40.02395711</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>40.00895711</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>40.00895711</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>40.07605711</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>40.07605711</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>40.67325284</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40.62145284</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>40.64055284000001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>40.64055284000001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>40.80685284</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>39.54655284</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>39.55555284</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>39.41755284000001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>39.41755284000001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>38.04495284000001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>39.09255284000001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>39.01975284000001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>39.01975284000001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>39.01975284000001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>38.61875284000001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>38.64945284000001</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>38.64945284000001</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>38.42475284000001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>46.96205284000001</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>47.51005284000001</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>47.49835284000002</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>48.59671907000002</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>48.40401907000002</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>52.63240579000002</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>49.17870489000001</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>50.32980489000001</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>50.32980489000001</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>50.30240489000001</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>50.30240489000001</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>50.30240489000001</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>50.78200489000001</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>51.45646250000001</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>51.45646250000001</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>35.79249822</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>36.88709822</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>39.47427218</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>39.63117218</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>29.08397218</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>29.08397218</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>29.92357218</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>27.98397218</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>29.41127218</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>29.41127218</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>29.23437218</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>373.5969476500001</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>354.7353689800001</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>374.7147287900001</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>379.5270963100001</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>395.0799963100001</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>386.7878963100001</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>376.7844399600001</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>363.6408260600001</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>388.9963158100001</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>407.1814679200001</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>434.2548637000001</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>471.8447158100001</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>448.9187682500001</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>465.4572676500001</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>450.2217946600001</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>436.9485285700001</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>422.1093285700001</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>401.1997286200001</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>418.2392474200001</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>425.0204474200001</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>411.2712068600001</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>389.7526363500001</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>389.7526363500001</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>384.6604716600001</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>365.5819716600001</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>371.3170716600001</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>392.9457578400001</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>412.2817188400001</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>571.9618837400002</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>534.8215609500002</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>520.1846411200002</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>484.8563112200002</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>470.6558944200002</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>442.8181944200002</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>424.2287779900005</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>454.8016779900005</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>464.9986779900005</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>449.4433727200005</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>434.7997869400004</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>460.6951869400004</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>513.7182869400004</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>695.8134157600005</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>715.0103346500005</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>705.5012029200004</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>713.5846196600004</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>685.7712836400004</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>688.9083836400005</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>707.4261836400004</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>725.1294441700004</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>700.4816524700004</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>729.9644020100004</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>704.6036790200004</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>678.9319040200004</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
